--- a/src/main/webapp/assets/excel/plan/Mining_Report_4_1.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Report_4_1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Д/д</t>
   </si>
@@ -116,6 +116,9 @@
   <si>
     <t>Металл (эрдэс) авалт</t>
   </si>
+  <si>
+    <t>Тодотгол</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -287,23 +290,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -329,33 +321,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -365,13 +330,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,7 +642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,13 +650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI3101"/>
+  <dimension ref="A1:AJ3101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="T8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -692,7 +687,7 @@
     <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -700,164 +695,168 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:35" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:36" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-    </row>
-    <row r="5" spans="1:35" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="12" t="s">
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="V5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="W5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="18" t="s">
+      <c r="X5" s="10"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="18" t="s">
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="18" t="s">
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="17" t="s">
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" s="3" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="AJ5" s="23"/>
+    </row>
+    <row r="6" spans="1:36" s="3" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
       <c r="R6" s="7" t="s">
         <v>22</v>
       </c>
@@ -867,8 +866,8 @@
       <c r="T6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="11"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="15"/>
       <c r="W6" s="8" t="s">
         <v>22</v>
       </c>
@@ -905,9 +904,10 @@
       <c r="AH6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AI6" s="17"/>
-    </row>
-    <row r="7" spans="1:35" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="23"/>
+    </row>
+    <row r="7" spans="1:36" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1013,8 +1013,11 @@
       <c r="AI7" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -1029,7 +1032,7 @@
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -1044,7 +1047,7 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1059,7 +1062,7 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1074,7 +1077,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1089,7 +1092,7 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1104,7 +1107,7 @@
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1119,7 +1122,7 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1134,7 +1137,7 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -47425,15 +47428,8 @@
       <c r="M3101"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="N4:AI4"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:Y5"/>
+  <mergeCells count="30">
+    <mergeCell ref="AJ4:AJ6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:M4"/>
@@ -47449,10 +47445,18 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="N4:AI4"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:Y5"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
-    <mergeCell ref="L5:L6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="P5:P6"/>
   </mergeCells>
